--- a/pkg/tests/testthat/read_ts/xlsx/example4.xlsx
+++ b/pkg/tests/testthat/read_ts/xlsx/example4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first_sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,13 +26,13 @@
     <t xml:space="preserve">The data is on the next sheet </t>
   </si>
   <si>
-    <t xml:space="preserve">2010Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011Q2</t>
+    <t xml:space="preserve">apr 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jan 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apr 2011</t>
   </si>
   <si>
     <t xml:space="preserve">zz</t>
@@ -66,8 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -147,12 +148,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,7 +190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="114.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,23 +217,23 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -264,7 +269,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="0" t="s">
